--- a/trend/Pinnacle Hist Futures/Data_check.xlsx
+++ b/trend/Pinnacle Hist Futures/Data_check.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\transfer\trend\Pinnacle Hist Futures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="130407"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="272">
   <si>
     <t>DOW JONES EUROSTOXX50</t>
   </si>
@@ -937,19 +943,67 @@
   </si>
   <si>
     <t>COPPER</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>LEAN HOGS</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>SWISS FRANC</t>
+  </si>
+  <si>
+    <t>DOW JONES, MINI</t>
+  </si>
+  <si>
+    <t>AUSTRALIAN DOLLAR</t>
+  </si>
+  <si>
+    <t>BRENT CRUDE OIL</t>
+  </si>
+  <si>
+    <t>BRENT GASOIL</t>
+  </si>
+  <si>
+    <t>BRITISH POUND</t>
+  </si>
+  <si>
+    <t>CANADIAN DOLLAR</t>
+  </si>
+  <si>
+    <t>EURO</t>
+  </si>
+  <si>
+    <t>JAPANESE YEN</t>
+  </si>
+  <si>
+    <t>MILK III</t>
+  </si>
+  <si>
+    <t>S &amp; P 400 (Mini electronic)</t>
+  </si>
+  <si>
+    <t>T-NOTE, 2yr</t>
+  </si>
+  <si>
+    <t>T-NOTE, 5yr</t>
+  </si>
+  <si>
+    <t>T-NOTE, 10yr</t>
+  </si>
+  <si>
+    <t>T-BONDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -988,6 +1042,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1310,20 +1372,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1343,1489 +1405,1489 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1">
-        <v>24111</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="F2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1">
-        <v>23743</v>
+        <v>30684</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
-        <v>29222</v>
+        <v>38230</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>210</v>
+      </c>
+      <c r="F4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1">
-        <v>24475</v>
+        <v>34277</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>210</v>
+      </c>
+      <c r="F5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
-        <v>23743</v>
+        <v>38209</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>210</v>
+      </c>
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
+        <v>38209</v>
+      </c>
+      <c r="E7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1">
+        <v>26299</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1">
+        <v>34702</v>
+      </c>
+      <c r="E11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1">
+        <v>33024</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1">
+        <v>28129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>27031</v>
+      </c>
+      <c r="E15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1">
         <v>30317</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="E16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1">
         <v>25204</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
-        <v>25934</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1">
-        <v>31778</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
-        <v>23743</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>23743</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="E17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1">
+        <v>34213</v>
+      </c>
+      <c r="E18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1">
+        <v>34247</v>
+      </c>
+      <c r="E19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31373</v>
+      </c>
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1">
+        <v>29952</v>
+      </c>
+      <c r="E21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1">
+        <v>28521</v>
+      </c>
+      <c r="E22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="1">
+        <v>34870</v>
+      </c>
+      <c r="E24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="1">
+        <v>36124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="1">
+        <v>34222</v>
+      </c>
+      <c r="E26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="1">
         <v>31049</v>
       </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>25204</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>27760</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
-        <v>25934</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1">
-        <v>27031</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>34444</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>24111</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>29587</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>28857</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>35887</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>35949</v>
-      </c>
-      <c r="E23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>35515</v>
-      </c>
-      <c r="E24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="1">
-        <v>23743</v>
-      </c>
-      <c r="E25" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="1">
-        <v>34702</v>
-      </c>
-      <c r="E26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="1">
-        <v>27031</v>
-      </c>
-      <c r="E27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="1">
-        <v>34702</v>
-      </c>
       <c r="E28" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="F29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="D30" s="1">
-        <v>28857</v>
+        <v>30957</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>210</v>
+      </c>
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="D31" s="1">
-        <v>31674</v>
+        <v>25976</v>
       </c>
       <c r="E31" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>249</v>
+      </c>
+      <c r="D32" s="1">
+        <v>25976</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="D34" s="1">
-        <v>32043</v>
+        <v>32511</v>
       </c>
       <c r="E34" t="s">
         <v>210</v>
       </c>
       <c r="F34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="1">
+        <v>31373</v>
+      </c>
+      <c r="E35" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>171</v>
-      </c>
-      <c r="B35" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="1">
-        <v>28600</v>
-      </c>
-      <c r="E35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="1">
+        <v>34263</v>
+      </c>
+      <c r="E38" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1">
+        <v>27031</v>
+      </c>
+      <c r="E39" t="s">
         <v>213</v>
       </c>
-      <c r="F35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="1">
-        <v>26299</v>
-      </c>
-      <c r="E36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" t="s">
-        <v>220</v>
-      </c>
-      <c r="F38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1">
-        <v>32939</v>
+        <v>25204</v>
       </c>
       <c r="E40" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1">
-        <v>25934</v>
+        <v>25569</v>
       </c>
       <c r="E41" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="D42" s="1">
+        <v>26666</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
-      </c>
-      <c r="F42" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D43" s="1">
-        <v>32542</v>
+        <v>25569</v>
       </c>
       <c r="E43" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="1">
+        <v>31413</v>
+      </c>
+      <c r="E46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="1">
+        <v>32185</v>
+      </c>
+      <c r="E47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="1">
+        <v>33360</v>
+      </c>
+      <c r="E48" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="1">
+        <v>28126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="1">
+        <v>33703</v>
+      </c>
+      <c r="E50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1">
+        <v>31778</v>
+      </c>
+      <c r="E52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="1">
+        <v>30317</v>
+      </c>
+      <c r="E53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="1">
+        <v>28857</v>
+      </c>
+      <c r="E55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>162</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B57" t="s">
         <v>97</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E57" t="s">
         <v>225</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="1">
-        <v>28857</v>
-      </c>
-      <c r="E46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" t="s">
-        <v>210</v>
-      </c>
-      <c r="F47" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="1">
-        <v>30317</v>
-      </c>
-      <c r="E48" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="1">
-        <v>31778</v>
-      </c>
-      <c r="E49" t="s">
-        <v>210</v>
-      </c>
-      <c r="F49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" t="s">
-        <v>229</v>
-      </c>
-      <c r="F50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="1">
-        <v>33703</v>
-      </c>
-      <c r="E51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="1">
-        <v>28126</v>
-      </c>
-      <c r="E52" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="1">
-        <v>33360</v>
-      </c>
-      <c r="E53" t="s">
-        <v>210</v>
-      </c>
-      <c r="F53" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="1">
-        <v>32185</v>
-      </c>
-      <c r="E54" t="s">
-        <v>210</v>
-      </c>
-      <c r="F54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="1">
-        <v>31413</v>
-      </c>
-      <c r="E55" t="s">
-        <v>210</v>
-      </c>
-      <c r="F55" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" t="s">
-        <v>210</v>
-      </c>
-      <c r="F56" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D58" s="1">
-        <v>25569</v>
+        <v>32542</v>
       </c>
       <c r="E58" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="1">
-        <v>26666</v>
+        <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>223</v>
+      </c>
+      <c r="F59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1">
-        <v>25569</v>
+        <v>25934</v>
       </c>
       <c r="E60" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D61" s="1">
-        <v>25204</v>
+        <v>32939</v>
       </c>
       <c r="E61" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="1">
-        <v>27031</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
+        <v>210</v>
+      </c>
+      <c r="F62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="1">
+        <v>26299</v>
+      </c>
+      <c r="E65" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="1">
-        <v>34263</v>
-      </c>
-      <c r="E63" t="s">
-        <v>210</v>
-      </c>
-      <c r="F63" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="1">
+        <v>28600</v>
+      </c>
+      <c r="E66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="1">
+        <v>32043</v>
+      </c>
+      <c r="E67" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" t="s">
-        <v>236</v>
-      </c>
-      <c r="F64" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65" t="s">
-        <v>238</v>
-      </c>
-      <c r="F65" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" t="s">
-        <v>252</v>
-      </c>
-      <c r="D66" s="1">
-        <v>31373</v>
-      </c>
-      <c r="E66" t="s">
-        <v>210</v>
-      </c>
-      <c r="F66" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67" t="s">
-        <v>251</v>
-      </c>
-      <c r="D67" s="1">
-        <v>32511</v>
-      </c>
-      <c r="E67" t="s">
-        <v>210</v>
-      </c>
-      <c r="F67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
-      </c>
-      <c r="D69" s="1">
-        <v>25976</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F69" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="D70" s="1">
-        <v>25976</v>
+        <v>31674</v>
       </c>
       <c r="E70" t="s">
         <v>213</v>
       </c>
-      <c r="F70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="D71" s="1">
-        <v>30957</v>
+        <v>28857</v>
       </c>
       <c r="E71" t="s">
-        <v>210</v>
-      </c>
-      <c r="F71" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="D73" s="1">
+        <v>34702</v>
+      </c>
+      <c r="E73" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="1">
+        <v>27031</v>
+      </c>
+      <c r="E74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="1">
+        <v>34702</v>
+      </c>
+      <c r="E75" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="1">
+        <v>23743</v>
+      </c>
+      <c r="E76" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>35515</v>
+      </c>
+      <c r="E77" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>35949</v>
+      </c>
+      <c r="E78" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>35887</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>28857</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1">
+        <v>29587</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>24111</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>34444</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1">
+        <v>27031</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1">
+        <v>25934</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="1">
+        <v>27760</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="1">
+        <v>25204</v>
+      </c>
+      <c r="E87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="1">
         <v>31049</v>
       </c>
-      <c r="E73" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" t="s">
-        <v>244</v>
-      </c>
-      <c r="E74" t="s">
-        <v>210</v>
-      </c>
-      <c r="F74" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" t="s">
-        <v>243</v>
-      </c>
-      <c r="D75" s="1">
-        <v>34222</v>
-      </c>
-      <c r="E75" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" t="s">
-        <v>242</v>
-      </c>
-      <c r="D76" s="1">
-        <v>36124</v>
-      </c>
-      <c r="E76" t="s">
-        <v>210</v>
-      </c>
-      <c r="F76" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" t="s">
-        <v>241</v>
-      </c>
-      <c r="D77" s="1">
-        <v>34870</v>
-      </c>
-      <c r="E77" t="s">
-        <v>210</v>
-      </c>
-      <c r="F77" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" t="s">
-        <v>240</v>
-      </c>
-      <c r="E78" t="s">
-        <v>195</v>
-      </c>
-      <c r="F78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" s="1">
-        <v>28521</v>
-      </c>
-      <c r="E79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D80" s="1">
-        <v>29952</v>
-      </c>
-      <c r="E80" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>125</v>
-      </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="1">
-        <v>31373</v>
-      </c>
-      <c r="E81" t="s">
-        <v>210</v>
-      </c>
-      <c r="F81" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" s="1">
-        <v>34247</v>
-      </c>
-      <c r="E82" t="s">
-        <v>210</v>
-      </c>
-      <c r="F82" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" t="s">
-        <v>71</v>
-      </c>
-      <c r="D83" s="1">
-        <v>34213</v>
-      </c>
-      <c r="E83" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>122</v>
-      </c>
-      <c r="B84" t="s">
-        <v>70</v>
-      </c>
-      <c r="D84" s="1">
+      <c r="E88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="1">
+        <v>23743</v>
+      </c>
+      <c r="E89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="1">
+        <v>23743</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="1">
+        <v>31778</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="1">
+        <v>25934</v>
+      </c>
+      <c r="E92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="1">
         <v>25204</v>
       </c>
-      <c r="E84" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>121</v>
-      </c>
-      <c r="B85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="E93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="1">
         <v>30317</v>
       </c>
-      <c r="E85" t="s">
-        <v>210</v>
-      </c>
-      <c r="F85" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" s="1">
-        <v>27031</v>
-      </c>
-      <c r="E86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" t="s">
-        <v>67</v>
-      </c>
-      <c r="E87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F87" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" t="s">
-        <v>66</v>
-      </c>
-      <c r="D88" s="1">
-        <v>28129</v>
-      </c>
-      <c r="E88" t="s">
-        <v>210</v>
-      </c>
-      <c r="F88" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
-      <c r="D89" s="1">
-        <v>33024</v>
-      </c>
-      <c r="E89" t="s">
-        <v>210</v>
-      </c>
-      <c r="F89" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" t="s">
-        <v>64</v>
-      </c>
-      <c r="D90" s="1">
-        <v>34702</v>
-      </c>
-      <c r="E90" t="s">
-        <v>210</v>
-      </c>
-      <c r="F90" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>115</v>
-      </c>
-      <c r="B91" t="s">
-        <v>63</v>
-      </c>
-      <c r="E91" t="s">
-        <v>210</v>
-      </c>
-      <c r="F91" t="s">
-        <v>199</v>
-      </c>
-      <c r="H91" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92" t="s">
-        <v>62</v>
-      </c>
-      <c r="E92" t="s">
-        <v>200</v>
-      </c>
-      <c r="F92" t="s">
-        <v>201</v>
-      </c>
-      <c r="H92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>113</v>
-      </c>
-      <c r="B93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D93" s="1">
-        <v>26299</v>
-      </c>
-      <c r="E93" t="s">
-        <v>210</v>
-      </c>
-      <c r="F93" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" t="s">
-        <v>60</v>
-      </c>
-      <c r="D94" s="1">
-        <v>38209</v>
-      </c>
       <c r="E94" t="s">
-        <v>210</v>
-      </c>
-      <c r="F94" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D95" s="1">
-        <v>38209</v>
+        <v>23743</v>
       </c>
       <c r="E95" t="s">
-        <v>210</v>
-      </c>
-      <c r="F95" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D96" s="1">
-        <v>34277</v>
+        <v>24475</v>
       </c>
       <c r="E96" t="s">
-        <v>210</v>
-      </c>
-      <c r="F96" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D97" s="1">
-        <v>38230</v>
+        <v>29222</v>
       </c>
       <c r="E97" t="s">
-        <v>210</v>
-      </c>
-      <c r="F97" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D98" s="1">
-        <v>30684</v>
+        <v>23743</v>
       </c>
       <c r="E98" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="D99" s="1">
+        <v>24111</v>
       </c>
       <c r="E99" t="s">
-        <v>202</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
-      </c>
-      <c r="H99" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:F99">
-    <sortCondition descending="1" ref="B2:B99"/>
+  <sortState ref="A2:H99">
+    <sortCondition ref="A2:A99"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2836,4 +2898,585 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:F98">
+    <sortCondition ref="B1:B98"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>